--- a/biology/Zoologie/Diversibipalium_multilineatum/Diversibipalium_multilineatum.xlsx
+++ b/biology/Zoologie/Diversibipalium_multilineatum/Diversibipalium_multilineatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversibipalium multilineatum est une espèce de vers plats terrestres du genre  Diversibipalium et de la famille des Geoplanidae (sous-famille des Bipaliinae).
 C'est une espèce envahissante de grande taille, originaire du Japon, maintenant présente dans plusieurs pays européens.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diversibipalium multilineatum a une longueur de 15 cm à  30 cm quand il est adulte, les jeunes étant nécessairement plus petits. De couleur ocre clair, le dos porte cinq bandes longitudinales espacées uniformément. La tête présente une ligne noire médiane en forme de « point d'exclamation » et le cou n’est pas sombre, ces deux caractéristiques permettant de le différencier de Bipalium kewense. D. multilineatum a un ventre clair[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diversibipalium multilineatum a une longueur de 15 cm à  30 cm quand il est adulte, les jeunes étant nécessairement plus petits. De couleur ocre clair, le dos porte cinq bandes longitudinales espacées uniformément. La tête présente une ligne noire médiane en forme de « point d'exclamation » et le cou n’est pas sombre, ces deux caractéristiques permettant de le différencier de Bipalium kewense. D. multilineatum a un ventre clair.
 </t>
         </is>
       </c>
